--- a/FileManager/Excel/DanhSachPhieuTuVan.xlsx
+++ b/FileManager/Excel/DanhSachPhieuTuVan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>STT</x:t>
   </x:si>
@@ -43,6 +43,9 @@
     <x:t>Loại ĐK</x:t>
   </x:si>
   <x:si>
+    <x:t>Ghi Chú</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nhân viên tư vấn</x:t>
   </x:si>
   <x:si>
@@ -67,6 +70,11 @@
     <x:t>Tư Vấn Anh Ngữ ASEC</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đăng k&amp;yacute; học TT gần nh&amp;agrave;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Phạm Xuân - Mã NV: 1607001018</x:t>
   </x:si>
   <x:si>
@@ -79,12 +87,24 @@
     <x:t>0907792086</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Ms. Nguyễn Thị V&amp;acirc;n Anh&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ngô Thị Mỹ Nhung</x:t>
   </x:si>
   <x:si>
     <x:t>01264845149</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Ms. Thủy&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đ&amp;atilde; học xong nữa cuốn Family and Friends 2&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nguyễn Trung Khoa</x:t>
   </x:si>
   <x:si>
@@ -94,6 +114,13 @@
     <x:t>0938444920</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Mr. Nguyễn Tuấn Khanh&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đang học lớp K1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trần Nguyễn An Nhi</x:t>
   </x:si>
   <x:si>
@@ -106,9 +133,31 @@
     <x:t>Nữ</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Ms.Nguyễn Thị &amp;Aacute;nh Thời&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; c&amp;oacute; học tiếng anh trong mẫu gi&amp;aacute;o nhưng kh&amp;ocirc;ng hiệu quả&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đang học lớp K1A-1601&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lê Uyên Thư</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Ms.Trần Thị &amp;Aacute;nh Thời&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; c&amp;oacute; học tiếng anh trong mẫu gi&amp;aacute;o nhưng kh&amp;ocirc;ng hiệu quả.&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đang học lớp K1A-1601&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nguyễn Huỳnh Bảo Ngọc</x:t>
   </x:si>
   <x:si>
@@ -118,6 +167,17 @@
     <x:t>09403570603</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Mr. Linh&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đ&amp;atilde; test, giao tiếp tốt nhưng c&amp;aacute;ch sắp xếp c&amp;acirc;u chưa đ&amp;uacute;ng .&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đang học thử lớp T1A-0601&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lê Thanh Trúc</x:t>
   </x:si>
   <x:si>
@@ -127,6 +187,13 @@
     <x:t>Ms.Một</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Đ&amp;atilde; qua học thử lớp K1A-1601&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nguyễn Trần Minh Ngọc</x:t>
   </x:si>
   <x:si>
@@ -136,6 +203,13 @@
     <x:t>Mr.Việt</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đ&amp;atilde; học thử lớp K1A-1601&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trần Bảo Nhi</x:t>
   </x:si>
   <x:si>
@@ -145,6 +219,13 @@
     <x:t>Mr.Hạnh</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đang học mẫu gi&amp;aacute;o, chưa học tiếng anh ở đ&amp;acirc;u hết.&lt;/p&gt;
+&lt;p&gt;
+	B&amp;eacute; đ&amp;atilde; học thử lớp K1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nguyễn Đức Hoàng Vũ</x:t>
   </x:si>
   <x:si>
@@ -154,6 +235,15 @@
     <x:t>Mr.Nguyễn Đức Hoàng Bảo</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; chưa học tiếng anh ở đ&amp;acirc;u hết.&lt;/p&gt;
+&lt;p&gt;
+	C&amp;oacute; tham gia lớp Demo ng&amp;agrave;y 03/07/2016&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trần Thanh Vy</x:t>
   </x:si>
   <x:si>
@@ -163,6 +253,11 @@
     <x:t>Ms.Lệ</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đang học lớp S1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Nguyễn Hữu Phước</x:t>
   </x:si>
   <x:si>
@@ -175,6 +270,13 @@
     <x:t>Ms.Loan</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; c&amp;oacute; học tiếng anh ở trường nhưng c&amp;ograve;n yếu.&lt;/p&gt;
+&lt;p&gt;
+	Be` đang học thử lớp S1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lý Thị Ngọc Huỳnh</x:t>
   </x:si>
   <x:si>
@@ -187,6 +289,11 @@
     <x:t>Ms.Nguyễn Ngọc Mai</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đang học lớp T1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hồ Lê Lan Vy</x:t>
   </x:si>
   <x:si>
@@ -208,6 +315,13 @@
     <x:t>Ms.Lý Yến</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đang học lớp T1A-1601&lt;/p&gt;
+&lt;p&gt;
+	&amp;nbsp;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Chế Ngọc Phương Trinh</x:t>
   </x:si>
   <x:si>
@@ -220,6 +334,11 @@
     <x:t>Ms.Đào</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	B&amp;eacute; đ&amp;atilde; học thử 2 buổi lớp K1A-1601&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trần Anh Tài</x:t>
   </x:si>
   <x:si>
@@ -229,6 +348,11 @@
     <x:t>Mr Thắng</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	Muốn học v&amp;agrave;o T7-CN&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gia Khánh</x:t>
   </x:si>
   <x:si>
@@ -241,16 +365,31 @@
     <x:t>Mr Nguyễn Hoàng Nhân</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:13181,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0,&amp;quot;15&amp;quot;:&amp;quot;Times New Roman&amp;quot;,&amp;quot;16&amp;quot;:12}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;Kh\u00f4ng mu\u1ed1n cho con h\u1ecdc qu\u00e1 nhi\u1ec1u v\u1ec9 cung \u0111ang h\u1ecdc t.a trong m\u1eabu gi\u00e1o 200k/month&amp;quot;}" style="font-size:120%;font-family:Times New Roman;text-align:center;"&gt;Kh&amp;ocirc;ng muốn cho con học qu&amp;aacute; nhiều v&amp;igrave; b&amp;eacute; cũng đang học t.a trong mẫu gi&amp;aacute;o 200k/month&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Đạt</x:t>
   </x:si>
   <x:si>
     <x:t>Ms Tuyền</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:13181,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0,&amp;quot;15&amp;quot;:&amp;quot;Times New Roman&amp;quot;,&amp;quot;16&amp;quot;:12}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;B\u00e9 kh\u00f4ng th\u00edch h\u1ecdc ti\u1ebfng anh&amp;quot;}" style="font-size:120%;font-family:Times New Roman;text-align:center;"&gt;B&amp;eacute; kh&amp;ocirc;ng th&amp;iacute;ch học tiếng anh&lt;/span&gt;&lt;/p&gt;
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>Chi Ting Hao</x:t>
   </x:si>
   <x:si>
     <x:t>Ms. Xuyến</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;p&gt;
+	&lt;span data-sheets-userformat="{&amp;quot;2&amp;quot;:13309,&amp;quot;3&amp;quot;:{&amp;quot;1&amp;quot;:0},&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;6&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;7&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;8&amp;quot;:{&amp;quot;1&amp;quot;:[{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0,&amp;quot;5&amp;quot;:{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:0}},{&amp;quot;1&amp;quot;:0,&amp;quot;2&amp;quot;:0,&amp;quot;3&amp;quot;:3},{&amp;quot;1&amp;quot;:1,&amp;quot;2&amp;quot;:0,&amp;quot;4&amp;quot;:1}]},&amp;quot;9&amp;quot;:1,&amp;quot;10&amp;quot;:1,&amp;quot;11&amp;quot;:4,&amp;quot;12&amp;quot;:0,&amp;quot;15&amp;quot;:&amp;quot;Times New Roman&amp;quot;,&amp;quot;16&amp;quot;:12}" data-sheets-value="{&amp;quot;1&amp;quot;:2,&amp;quot;2&amp;quot;:&amp;quot;b\u00e9 ch\u01b0a h\u1ecdc m\u1eabu gi\u00e1o, c\u00f3 quan t\u00e2m v\u00e0 s\u1ebd b\u00e0n l\u1ea1i v\u1edbi ch\u1ed3ng&amp;quot;}" style="font-size:120%;font-family:Times New Roman;text-align:center;"&gt;b&amp;eacute; chưa học mẫu gi&amp;aacute;o, c&amp;oacute; quan t&amp;acirc;m v&amp;agrave; sẽ b&amp;agrave;n lại với chồng&lt;/span&gt;&lt;/p&gt;
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -296,24 +435,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -328,9 +474,9 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
-  <x:autoFilter ref="A1:K23"/>
-  <x:tableColumns count="11">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L23" totalsRowShown="0">
+  <x:autoFilter ref="A1:L23"/>
+  <x:tableColumns count="12">
     <x:tableColumn id="1" name="STT"/>
     <x:tableColumn id="2" name="Họ và Tên"/>
     <x:tableColumn id="3" name="Địa chỉ"/>
@@ -340,8 +486,9 @@
     <x:tableColumn id="7" name="Giới tính"/>
     <x:tableColumn id="8" name="Phụ huynh - Người liên hệ"/>
     <x:tableColumn id="9" name="Loại ĐK"/>
-    <x:tableColumn id="10" name="Nhân viên tư vấn"/>
-    <x:tableColumn id="11" name="Ngày tư vấn"/>
+    <x:tableColumn id="10" name="Ghi Chú"/>
+    <x:tableColumn id="11" name="Nhân viên tư vấn"/>
+    <x:tableColumn id="12" name="Ngày tư vấn"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -635,7 +782,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K23"/>
+  <x:dimension ref="A1:L23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -650,11 +797,12 @@
     <x:col min="7" max="7" width="10.550625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="26.130625000000002" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="21.840625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="31.130625000000002" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="15.700625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="1196.2706249999999" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="31.130625000000002" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="15.700625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:12">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -688,197 +836,218 @@
       <x:c r="K1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:11">
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="1">
         <x:v>39654</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K2" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L2" s="3">
         <x:v>42557.5678912384</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="1">
         <x:v>40843</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s"/>
       <x:c r="I3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K3" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L3" s="3">
         <x:v>42557.57116875</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:12">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s"/>
       <x:c r="G4" s="0" t="s"/>
       <x:c r="H4" s="0" t="s"/>
       <x:c r="I4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K4" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L4" s="3">
         <x:v>42557.5759525116</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:12">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s"/>
       <x:c r="G5" s="0" t="s"/>
       <x:c r="H5" s="0" t="s"/>
       <x:c r="I5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K5" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J5" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L5" s="3">
         <x:v>42557.5818039699</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:12">
       <x:c r="A6" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s"/>
       <x:c r="G6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s"/>
       <x:c r="I6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K6" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J6" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L6" s="3">
         <x:v>42557.5845775116</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:12">
       <x:c r="A7" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="1">
         <x:v>41068</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s"/>
       <x:c r="I7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K7" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J7" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L7" s="3">
         <x:v>42557.586540706</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:12">
       <x:c r="A8" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="1">
@@ -887,27 +1056,30 @@
       <x:c r="G8" s="0" t="s"/>
       <x:c r="H8" s="0" t="s"/>
       <x:c r="I8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K8" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J8" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L8" s="3">
         <x:v>42557.6000670486</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:12">
       <x:c r="A9" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="1">
@@ -915,30 +1087,33 @@
       </x:c>
       <x:c r="G9" s="0" t="s"/>
       <x:c r="H9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K9" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J9" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L9" s="3">
         <x:v>42557.6235412847</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:12">
       <x:c r="A10" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="1">
@@ -946,30 +1121,33 @@
       </x:c>
       <x:c r="G10" s="0" t="s"/>
       <x:c r="H10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K10" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J10" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L10" s="3">
         <x:v>42557.6254293171</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:12">
       <x:c r="A11" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="1">
@@ -977,30 +1155,33 @@
       </x:c>
       <x:c r="G11" s="0" t="s"/>
       <x:c r="H11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K11" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J11" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L11" s="3">
         <x:v>42557.6270079051</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:11">
+    <x:row r="12" spans="1:12">
       <x:c r="A12" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="1">
@@ -1008,30 +1189,33 @@
       </x:c>
       <x:c r="G12" s="0" t="s"/>
       <x:c r="H12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K12" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J12" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L12" s="3">
         <x:v>42557.6285778588</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:12">
       <x:c r="A13" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="1">
@@ -1039,30 +1223,33 @@
       </x:c>
       <x:c r="G13" s="0" t="s"/>
       <x:c r="H13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K13" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J13" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L13" s="3">
         <x:v>42557.6312529282</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:12">
       <x:c r="A14" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="1">
@@ -1070,308 +1257,338 @@
       </x:c>
       <x:c r="G14" s="0" t="s"/>
       <x:c r="H14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K14" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J14" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L14" s="3">
         <x:v>42557.6365316319</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:12">
       <x:c r="A15" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s"/>
       <x:c r="G15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K15" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J15" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L15" s="3">
         <x:v>42558.8166815972</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:11">
+    <x:row r="16" spans="1:12">
       <x:c r="A16" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="1">
         <x:v>38138</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K16" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J16" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L16" s="3">
         <x:v>42558.8177951389</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:12">
       <x:c r="A17" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="1">
         <x:v>38639</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K17" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J17" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L17" s="3">
         <x:v>42558.818633831</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:12">
       <x:c r="A18" s="0" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="1">
         <x:v>39731</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K18" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J18" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L18" s="3">
         <x:v>42558.8251785069</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11">
+    <x:row r="19" spans="1:12">
       <x:c r="A19" s="0" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="1">
         <x:v>40977</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s"/>
       <x:c r="I19" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J19" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K19" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J19" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L19" s="3">
         <x:v>42558.8282700579</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11">
+    <x:row r="20" spans="1:12">
       <x:c r="A20" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="1">
         <x:v>40909</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K20" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J20" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L20" s="3">
         <x:v>42558.844153588</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11">
+    <x:row r="21" spans="1:12">
       <x:c r="A21" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="1">
         <x:v>40821</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J21" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K21" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J21" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L21" s="3">
         <x:v>42558.8451517708</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:11">
+    <x:row r="22" spans="1:12">
       <x:c r="A22" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="1">
         <x:v>38580</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J22" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K22" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J22" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L22" s="3">
         <x:v>42558.8457029745</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11">
+    <x:row r="23" spans="1:12">
       <x:c r="A23" s="0" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="1">
         <x:v>41516</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K23" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J23" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L23" s="3">
         <x:v>42558.8720934838</x:v>
       </x:c>
     </x:row>
